--- a/similarities/split_global/harmonic_similarity_timestamps_200.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_200.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>['F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:01:27.660000', '0:01:36.720000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:04.824512')]</t>
+          <t>('0:00:00.600000', '0:00:05.900000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['G:7', 'C:min', 'B:dim7/C', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj'], ['F#:7', 'B:maj', 'B:min']]</t>
+          <t>['E:7', 'A:min', 'G#:dim7', 'A:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:04.920000', '0:01:07.900000')]</t>
+          <t>('0:01:18.740000', '0:01:29.260000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:09.540000'), ('0:00:30.520000', '0:00:40.640000')]</t>
+          <t>('0:00:20.380000', '0:00:24.760000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=78.74</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=30.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=20.38</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'E/4']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['F:min/C', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
+          <t>('0:00:43.680000', '0:00:45.800000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.740000', '0:00:21.500000'), ('0:01:08.040000', '0:01:19')]</t>
+          <t>('0:00:13.480000', '0:00:20.960000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:44.820000', '0:00:47.280000'), ('0:00:18.060000', '0:00:20.600000')]</t>
+          <t>('0:00:10.360000', '0:00:18.440000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['C', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:02.360000', '0:00:11.660000')]</t>
+          <t>('0:00:21.020000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:38.250000', '0:00:42.100000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=2.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=21.02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=38.25</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A#:7', 'D#:min', 'A#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['A:7', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:11.700000', '0:01:18.400000')]</t>
+          <t>('0:00:13.860000', '0:00:18.620000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
+          <t>('0:00:40.800000', '0:00:43.900000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=71.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=13.86</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=40.8</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:21.440000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:57.777619', '0:01:01.864331')]</t>
+          <t>('0:01:22.290863', '0:01:33.575761')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=57.777619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:00:25.480000', '0:00:32.580000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:33.698526', '0:00:42.916848')]</t>
+          <t>('0:00:07.840000', '0:00:11.420000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=7.84</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>isophonics_255</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['D:min', 'G:min/5', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:08.158789', '0:00:22.589990')]</t>
+          <t>('0:00:27.789047', '0:00:31.109501')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:11.200000', '0:00:22.160000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=11.2</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
+          <t>('0:00:07.560000', '0:00:16.360000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+          <t>('0:04:03.440000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=107.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=35.46']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:06.300000', '0:00:14.360000'), ('0:00:17.040000', '0:00:24.520000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:13.740000', '0:00:22.560000'), ('0:01:24', '0:01:30.840000')]</t>
+          <t>('0:00:00.800000', '0:00:02.880000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:02.360000', '0:00:11.660000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=2.36</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000'), ('0:01:37.880000', '0:01:48.980000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:25.480000', '0:00:32.760000')]</t>
+          <t>('0:00:17.581738', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F#', 'E', 'B']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Db:maj', 'Ab:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:59.041587', '0:01:06.994421')]</t>
+          <t>('0:00:08.180000', '0:00:18.180000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:45.887000', '0:00:51.649000')]</t>
+          <t>('0:00:01', '0:00:07.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=59.041587']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=45.887']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>isophonics_276</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:09.200000', '0:00:20.100000')]</t>
+          <t>('0:00:46.600000', '0:00:49.040000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:04:13.840000', '0:04:19.880000')]</t>
+          <t>('0:00:09.738333', '0:00:15.380782')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=9.738333</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
